--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed3/result_data_RandomForest.xlsx
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.6932</v>
+        <v>4.646600000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.762500000000006</v>
+        <v>8.672000000000004</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.464299999999997</v>
+        <v>6.5923</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.6829</v>
+        <v>-7.548400000000003</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>6.028300000000002</v>
+        <v>6.412400000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.430599999999995</v>
+        <v>5.456999999999997</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
